--- a/ra/src/main/java/com/tsa/ra/casefile/ra_case.xlsx
+++ b/ra/src/main/java/com/tsa/ra/casefile/ra_case.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23970" windowHeight="3660"/>
+    <workbookView windowWidth="21000" windowHeight="7380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="cfca" sheetId="1" r:id="rId1"/>
     <sheet name="ca" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="308">
+  <si>
+    <t>is_run</t>
+  </si>
   <si>
     <t>case_id</t>
   </si>
@@ -25,9 +29,6 @@
   </si>
   <si>
     <t>测试描述</t>
-  </si>
-  <si>
-    <t>操作步骤</t>
   </si>
   <si>
     <t>预期结果</t>
@@ -893,6 +894,57 @@
   </si>
   <si>
     <t>{"msg":"fileExtension参数不完全","success":false,"resultCode":"0202002"}</t>
+  </si>
+  <si>
+    <t>实际结果-ResultValue</t>
+  </si>
+  <si>
+    <t>用例是否通过-IsPass</t>
+  </si>
+  <si>
+    <t>password-password</t>
+  </si>
+  <si>
+    <t>username-username</t>
+  </si>
+  <si>
+    <t>subject-subject</t>
+  </si>
+  <si>
+    <t>period-period</t>
+  </si>
+  <si>
+    <t>periodType-periodType</t>
+  </si>
+  <si>
+    <t>cardType-cardType</t>
+  </si>
+  <si>
+    <t>cardNumber-cardNumber</t>
+  </si>
+  <si>
+    <t>email-email</t>
+  </si>
+  <si>
+    <t>北京技术服务有限公司</t>
+  </si>
+  <si>
+    <t>o=北京技术服务有限公司,ou=测试专用,cn=23464567575675634XEs-北京技术服务有限公司</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>23464567575675634XEs</t>
+  </si>
+  <si>
+    <t>tsa@tsa.cn</t>
   </si>
 </sst>
 </file>
@@ -901,11 +953,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -915,8 +967,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="方正细黑一_GBK"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="方正细黑一_GBK"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -926,31 +984,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,6 +1028,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -980,9 +1074,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1001,51 +1110,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1054,24 +1118,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,19 +1142,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,37 +1172,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,19 +1202,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,13 +1220,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,13 +1274,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,43 +1304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,13 +1320,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1293,16 +1364,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,16 +1415,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,32 +1440,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1382,79 +1453,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1463,87 +1555,87 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1892,659 +1984,644 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="58.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="13.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="58.625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="31.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="36" spans="1:5">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="36" spans="2:5">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="36" spans="2:5">
-      <c r="B3" s="4" t="s">
+    <row r="3" ht="36" spans="3:5">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="3:5">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="3:5">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+    <row r="6" spans="4:5">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="4:5">
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="4:5">
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="4:5">
+      <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
+      <c r="D11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="E12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="E13" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5">
+      <c r="D14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="E14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="16" spans="4:5">
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="E16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18" s="4" t="s">
+      <c r="E17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="4:5">
+      <c r="D19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="4:5">
+      <c r="D20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="4:5">
+      <c r="D21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="4" t="s">
+      <c r="E21" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="4" t="s">
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5">
-      <c r="C24" s="4" t="s">
+      <c r="E23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="C25" s="4" t="s">
+      <c r="E24" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="4" t="s">
+      <c r="E25" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="4" t="s">
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="4" t="s">
+      <c r="E27" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="C29" s="4" t="s">
+      <c r="E28" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="3:5">
-      <c r="C30" s="4" t="s">
+    <row r="30" spans="4:5">
+      <c r="D30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="3:5">
-      <c r="C31" s="4" t="s">
+    <row r="31" spans="4:5">
+      <c r="D31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="3:5">
-      <c r="C32" s="4" t="s">
+    <row r="32" spans="4:5">
+      <c r="D32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="4" t="s">
+    <row r="33" spans="4:5">
+      <c r="D33" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="4" t="s">
+      <c r="E33" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="4" t="s">
+      <c r="E34" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="4" t="s">
+      <c r="E35" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="C37" s="4" t="s">
+      <c r="E36" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="4" t="s">
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="4" t="s">
+      <c r="E38" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" ht="36" spans="2:5">
-      <c r="B40" s="3" t="s">
+      <c r="E39" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="36" spans="3:5">
+      <c r="C40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" ht="36" spans="3:5">
-      <c r="C41" s="4" t="s">
+    <row r="41" ht="36" spans="4:5">
+      <c r="D41" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" ht="36" spans="3:5">
-      <c r="C42" s="4" t="s">
+    <row r="42" ht="36" spans="4:5">
+      <c r="D42" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" ht="36" spans="3:5">
-      <c r="C43" s="4" t="s">
+    <row r="43" ht="36" spans="4:5">
+      <c r="D43" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="3:5">
-      <c r="C44" s="4" t="s">
+    <row r="44" spans="4:5">
+      <c r="D44" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="C45" s="4" t="s">
+      <c r="E44" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" s="4" t="s">
+      <c r="E45" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="4" t="s">
+      <c r="E46" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="4" t="s">
+      <c r="E47" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5">
-      <c r="C49" s="4" t="s">
+      <c r="E48" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5">
-      <c r="C50" s="4" t="s">
+      <c r="E49" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5">
-      <c r="C51" s="4" t="s">
+      <c r="E50" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="C52" s="4" t="s">
+      <c r="E51" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5">
-      <c r="C53" s="4" t="s">
+      <c r="E52" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" ht="36" spans="3:5">
-      <c r="C54" s="3" t="s">
+      <c r="E53" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" ht="36" spans="4:5">
+      <c r="D54" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" ht="36" spans="3:5">
-      <c r="C55" s="3" t="s">
+    <row r="55" ht="36" spans="4:5">
+      <c r="D55" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" ht="36" spans="3:5">
-      <c r="C56" s="3" t="s">
+    <row r="56" ht="36" spans="4:5">
+      <c r="D56" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" ht="36" spans="3:5">
-      <c r="C57" s="3" t="s">
+    <row r="57" ht="36" spans="4:5">
+      <c r="D57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" ht="36" spans="3:5">
-      <c r="C58" s="3" t="s">
+    <row r="58" ht="36" spans="4:5">
+      <c r="D58" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" ht="36" spans="3:5">
-      <c r="C59" s="3" t="s">
+    <row r="59" ht="36" spans="4:5">
+      <c r="D59" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" ht="36" spans="3:5">
-      <c r="C60" s="3" t="s">
+    <row r="60" ht="36" spans="4:5">
+      <c r="D60" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" ht="36" spans="3:5">
-      <c r="C61" s="3" t="s">
+    <row r="61" ht="36" spans="4:5">
+      <c r="D61" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" ht="36" spans="3:5">
-      <c r="C62" s="3" t="s">
+    <row r="62" ht="36" spans="4:5">
+      <c r="D62" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" ht="36" spans="3:5">
-      <c r="C63" s="3" t="s">
+    <row r="63" ht="36" spans="4:5">
+      <c r="D63" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" ht="36" spans="3:5">
-      <c r="C64" s="3" t="s">
+    <row r="64" ht="36" spans="4:5">
+      <c r="D64" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" ht="36" spans="3:5">
-      <c r="C65" s="3" t="s">
+    <row r="65" ht="36" spans="4:5">
+      <c r="D65" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" ht="36" spans="3:5">
-      <c r="C66" s="3" t="s">
+    <row r="66" ht="36" spans="4:5">
+      <c r="D66" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" ht="36" spans="3:5">
-      <c r="C67" s="3" t="s">
+    <row r="67" ht="36" spans="4:5">
+      <c r="D67" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" ht="36" spans="3:5">
-      <c r="C68" s="3" t="s">
+    <row r="68" ht="36" spans="4:5">
+      <c r="D68" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" ht="36" spans="3:5">
-      <c r="C69" s="3" t="s">
+    <row r="69" ht="36" spans="4:5">
+      <c r="D69" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" ht="36" spans="3:5">
-      <c r="C70" s="3" t="s">
+    <row r="70" ht="36" spans="4:5">
+      <c r="D70" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" ht="36" spans="3:5">
-      <c r="C71" s="3" t="s">
+    <row r="71" ht="36" spans="4:5">
+      <c r="D71" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="72" ht="36" spans="3:5">
-      <c r="C72" s="3" t="s">
+    <row r="72" ht="36" spans="4:5">
+      <c r="D72" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="73" ht="36" spans="3:5">
-      <c r="C73" s="3" t="s">
+    <row r="73" ht="36" spans="4:5">
+      <c r="D73" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="74" ht="36" spans="3:5">
-      <c r="C74" s="3" t="s">
+    <row r="74" ht="36" spans="4:5">
+      <c r="D74" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="75" ht="36" spans="3:5">
-      <c r="C75" s="3" t="s">
+    <row r="75" spans="5:5">
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" ht="36" spans="4:5">
+      <c r="D76" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E76" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2578,1593 +2655,1593 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="35.75" style="1" customWidth="1"/>
+    <col min="1" max="4" width="9" style="11"/>
+    <col min="5" max="5" width="35.75" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="2" t="s">
+      <c r="C59" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="C61" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C63" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C64" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="C65" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="A68" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="A70" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="A77" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="12" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="A80" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="12" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="A81" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="12" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="A82" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="A83" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="A84" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="A86" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="A87" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="A88" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="A89" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="A90" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="12" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="A91" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="12" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="A92" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="12" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="A93" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="12" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4173,4 +4250,1663 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="16.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="12.125" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="51" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" ht="84" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7">
+        <v>111222</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" ht="84" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" ht="48" spans="1:15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" ht="48" spans="1:15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" ht="48" spans="1:15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" ht="48" spans="1:15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" ht="48" spans="1:15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" ht="48" spans="1:15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" ht="48" spans="1:15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" ht="48" spans="1:15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" ht="48" spans="1:15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" ht="48" spans="1:15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" ht="48" spans="1:15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" ht="48" spans="1:15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" ht="48" spans="1:15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" ht="48" spans="1:15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" ht="48" spans="1:15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" ht="48" spans="1:15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" ht="48" spans="1:15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" ht="48" spans="1:15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" ht="48" spans="1:15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" ht="48" spans="1:15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" ht="48" spans="1:15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" ht="48" spans="1:15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" ht="48" spans="1:15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" ht="48" spans="1:15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" ht="48" spans="1:15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" ht="48" spans="1:15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" ht="48" spans="1:15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" ht="48" spans="1:15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" ht="48" spans="1:15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" ht="48" spans="1:15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" ht="48" spans="1:15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" ht="48" spans="1:15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" ht="48" spans="1:15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" ht="48" spans="1:15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" ht="48" spans="1:15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" ht="48" spans="1:15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" ht="60" spans="1:15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" ht="60" spans="1:15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" ht="72" spans="1:15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" ht="72" spans="1:15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" ht="60" spans="1:15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" ht="60" spans="1:15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" ht="60" spans="1:15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" ht="72" spans="1:15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" ht="72" spans="1:15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" ht="72" spans="1:15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" ht="60" spans="1:15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" ht="60" spans="1:15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" ht="60" spans="1:15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" ht="60" spans="1:15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" ht="60" spans="1:15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" ht="72" spans="1:15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" ht="72" spans="1:15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" ht="72" spans="1:15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" ht="72" spans="1:15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" ht="72" spans="1:15">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+    </row>
+    <row r="60" ht="72" spans="1:15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" ht="72" spans="1:15">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" ht="72" spans="1:15">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" ht="72" spans="1:15">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" ht="84" spans="1:15">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" ht="84" spans="1:15">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" ht="60" spans="1:15">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" ht="72" spans="1:15">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" ht="72" spans="1:15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+    </row>
+    <row r="69" ht="72" spans="1:15">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+    </row>
+    <row r="70" ht="84" spans="1:15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+    </row>
+    <row r="71" ht="72" spans="1:15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+    </row>
+    <row r="72" ht="72" spans="1:15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" ht="96" spans="1:15">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" ht="72" spans="1:15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" ht="60" spans="1:6">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" display="tsa@tsa.cn"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ra/src/main/java/com/tsa/ra/casefile/ra_case.xlsx
+++ b/ra/src/main/java/com/tsa/ra/casefile/ra_case.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17940" windowHeight="12135" activeTab="2"/>
+    <workbookView windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
-    <sheet name="123" sheetId="2" r:id="rId1"/>
+    <sheet name="CA_CASE" sheetId="8" r:id="rId1"/>
     <sheet name="CFCA_CASE" sheetId="7" r:id="rId2"/>
-    <sheet name="CA_CASE" sheetId="8" r:id="rId3"/>
+    <sheet name="CA" sheetId="9" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CA_CASE!$A$1:$Q$161</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6725" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6713" uniqueCount="737">
   <si>
     <t>是否运行-IsRun</t>
   </si>
@@ -92,7 +95,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>a3dedfc80ac3aaf75330aeb6a6d0e51f</t>
+    <t>51b108418653c69f0f040ba4e9057d0f</t>
   </si>
   <si>
     <t>北京技术服务有限公司</t>
@@ -566,7 +569,7 @@
     <t>false_"code":"0"</t>
   </si>
   <si>
-    <t>a3dedfc80ac3aaf75330aeb6a6d0e51f1</t>
+    <t>51b108418653c69f0f040ba4e9057d0ff</t>
   </si>
   <si>
     <t>CA_056</t>
@@ -575,7 +578,7 @@
     <t>pin值所属账户次数用完</t>
   </si>
   <si>
-    <t>a3418d4de9217041a025857aa6b6b314</t>
+    <t>3aa206a1214586b962168b53cc0b695d</t>
   </si>
   <si>
     <t>CA_057</t>
@@ -599,730 +602,731 @@
     <t>CA_059</t>
   </si>
   <si>
+    <t>pin值为空格</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+</t>
+  </si>
+  <si>
+    <t>CA_060</t>
+  </si>
+  <si>
+    <t>pin值不传</t>
+  </si>
+  <si>
+    <t>CA_061</t>
+  </si>
+  <si>
+    <t>必填参数password为null</t>
+  </si>
+  <si>
+    <t>CA_062</t>
+  </si>
+  <si>
+    <t>必填参数password为true</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>CA_060</t>
-  </si>
-  <si>
-    <t>pin值为空格</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CA_061</t>
-  </si>
-  <si>
-    <t>pin值不传</t>
-  </si>
-  <si>
-    <t>CA_062</t>
-  </si>
-  <si>
-    <t>必填参数password为null</t>
-  </si>
-  <si>
     <t>CA_063</t>
   </si>
   <si>
-    <t>必填参数password为true</t>
+    <t>必填参数password为英文字符“zhongguo”</t>
+  </si>
+  <si>
+    <t>zhongguo</t>
   </si>
   <si>
     <t>CA_064</t>
   </si>
   <si>
-    <t>必填参数password为英文字符“zhongguo”</t>
-  </si>
-  <si>
-    <t>zhongguo</t>
+    <t>必填参数password为小数“1.1”</t>
+  </si>
+  <si>
+    <t>1.1</t>
   </si>
   <si>
     <t>CA_065</t>
   </si>
   <si>
-    <t>必填参数password为小数“1.1”</t>
-  </si>
-  <si>
-    <t>1.1</t>
+    <t>必填参数password为小数空格</t>
   </si>
   <si>
     <t>CA_066</t>
   </si>
   <si>
-    <t>必填参数password为小数空格</t>
+    <t>必填参数password为汉字"中国"</t>
+  </si>
+  <si>
+    <t>中国</t>
   </si>
   <si>
     <t>CA_067</t>
   </si>
   <si>
-    <t>必填参数password为汉字"中国"</t>
-  </si>
-  <si>
-    <t>中国</t>
+    <t>必填参数password为特殊字符"@#￥@#￥%#￥……&amp;%"</t>
+  </si>
+  <si>
+    <t>@#￥@#￥%#￥……&amp;%</t>
   </si>
   <si>
     <t>CA_068</t>
   </si>
   <si>
-    <t>必填参数password为特殊字符"@#￥@#￥%#￥……&amp;%"</t>
-  </si>
-  <si>
-    <t>@#￥@#￥%#￥……&amp;%</t>
+    <t>必填参数password值为空</t>
   </si>
   <si>
     <t>CA_069</t>
   </si>
   <si>
-    <t>必填参数password值为空</t>
+    <t>必填参数password不传</t>
   </si>
   <si>
     <t>CA_070</t>
   </si>
   <si>
-    <t>必填参数password不传</t>
+    <t>必填参数username为null</t>
+  </si>
+  <si>
+    <t>ssssss</t>
   </si>
   <si>
     <t>CA_071</t>
   </si>
   <si>
-    <t>必填参数username为null</t>
-  </si>
-  <si>
-    <t>ssssss</t>
+    <t>必填参数username为true</t>
   </si>
   <si>
     <t>CA_072</t>
   </si>
   <si>
-    <t>必填参数username为true</t>
+    <t>必填参数username为英文字符“zhongguo”</t>
   </si>
   <si>
     <t>CA_073</t>
   </si>
   <si>
-    <t>必填参数username为英文字符“zhongguo”</t>
+    <t>必填参数username为小数“1.1”</t>
   </si>
   <si>
     <t>CA_074</t>
   </si>
   <si>
-    <t>必填参数username为小数“1.1”</t>
+    <t>必填参数username为特殊字符“@#￥@#￥%#￥……&amp;%”</t>
   </si>
   <si>
     <t>CA_075</t>
   </si>
   <si>
-    <t>必填参数username为特殊字符“@#￥@#￥%#￥……&amp;%”</t>
+    <t>必填参数username为空格</t>
   </si>
   <si>
     <t>CA_076</t>
   </si>
   <si>
-    <t>必填参数username为空格</t>
+    <t>必填参数username为空</t>
   </si>
   <si>
     <t>CA_077</t>
   </si>
   <si>
-    <t>必填参数username为空</t>
+    <t>必填参数username不传</t>
   </si>
   <si>
     <t>CA_078</t>
   </si>
   <si>
-    <t>必填参数username不传</t>
+    <t>必填参数subject传"cn=null"</t>
+  </si>
+  <si>
+    <t>cn=null</t>
   </si>
   <si>
     <t>CA_079</t>
   </si>
   <si>
-    <t>必填参数subject传"cn=null"</t>
-  </si>
-  <si>
-    <t>cn=null</t>
+    <t>必填参数subject传"cn=true"</t>
+  </si>
+  <si>
+    <t>cn=true</t>
   </si>
   <si>
     <t>CA_080</t>
   </si>
   <si>
-    <t>必填参数subject传"cn=true"</t>
-  </si>
-  <si>
-    <t>cn=true</t>
+    <t>必填参数subject传"cn=中国"</t>
+  </si>
+  <si>
+    <t>cn=中国</t>
   </si>
   <si>
     <t>CA_081</t>
   </si>
   <si>
-    <t>必填参数subject传"cn=中国"</t>
-  </si>
-  <si>
-    <t>cn=中国</t>
+    <t>必填参数subject传"cn=1.1"</t>
+  </si>
+  <si>
+    <t>cn=1.1</t>
   </si>
   <si>
     <t>CA_082</t>
   </si>
   <si>
-    <t>必填参数subject传"cn=1.1"</t>
-  </si>
-  <si>
-    <t>cn=1.1</t>
+    <t>必填参数subject传"cn=@#￥@#￥%#￥……&amp;%"</t>
+  </si>
+  <si>
+    <t>cn=@#￥@#￥%#￥……&amp;%</t>
   </si>
   <si>
     <t>CA_083</t>
   </si>
   <si>
-    <t>必填参数subject传"cn=@#￥@#￥%#￥……&amp;%"</t>
-  </si>
-  <si>
-    <t>"cn=@#￥@#￥%#￥……&amp;%</t>
+    <t>必填参数subject传"o=,cn=中国"</t>
+  </si>
+  <si>
+    <t>o=,cn=中国</t>
   </si>
   <si>
     <t>CA_084</t>
   </si>
   <si>
-    <t>必填参数subject传"o=,cn=中国"</t>
-  </si>
-  <si>
-    <t>o=,cn=中国</t>
+    <t>必填参数subject传"ou=,cn=中国"</t>
+  </si>
+  <si>
+    <t>ou=,cn=中国</t>
   </si>
   <si>
     <t>CA_085</t>
   </si>
   <si>
-    <t>必填参数subject传"ou=,cn=中国"</t>
-  </si>
-  <si>
-    <t>ou=,cn=中国</t>
+    <t>必填参数subject传"o=,ou=,cn=中国"</t>
+  </si>
+  <si>
+    <t>o=,ou=,cn=中国</t>
   </si>
   <si>
     <t>CA_086</t>
   </si>
   <si>
-    <t>必填参数subject传"o=,ou=,cn=中国"</t>
-  </si>
-  <si>
-    <t>o=,ou=,cn=中国</t>
+    <t>必填参数subject仅传o</t>
+  </si>
+  <si>
+    <t>o=北京技术服务有限公司111</t>
   </si>
   <si>
     <t>CA_087</t>
   </si>
   <si>
-    <t>必填参数subject仅传o</t>
-  </si>
-  <si>
-    <t>o=北京技术服务有限公司111</t>
+    <t>必填参数subject仅传ou</t>
+  </si>
+  <si>
+    <t>ou=测试专用111</t>
   </si>
   <si>
     <t>CA_088</t>
   </si>
   <si>
-    <t>必填参数subject仅传ou</t>
-  </si>
-  <si>
-    <t>ou=测试专用111</t>
+    <t>必填参数subject仅传o和ou</t>
+  </si>
+  <si>
+    <t>o=北京技术服务有限公司111,ou=测试专用111</t>
   </si>
   <si>
     <t>CA_089</t>
   </si>
   <si>
-    <t>必填参数subject仅传o和ou</t>
-  </si>
-  <si>
-    <t>o=北京技术服务有限公司111,ou=测试专用111</t>
+    <t>必填参数subject为空</t>
   </si>
   <si>
     <t>CA_090</t>
   </si>
   <si>
-    <t>必填参数subject为空</t>
+    <t>必填参数subject不传</t>
   </si>
   <si>
     <t>CA_091</t>
   </si>
   <si>
-    <t>必填参数subject不传</t>
+    <t>必填参数period不传，periodType为day</t>
   </si>
   <si>
     <t>CA_092</t>
   </si>
   <si>
-    <t>必填参数period不传，periodType为day</t>
+    <t>必填参数period不传，periodType为month</t>
   </si>
   <si>
     <t>CA_093</t>
   </si>
   <si>
-    <t>必填参数period不传，periodType为month</t>
+    <t>必填参数period不传，periodType为year</t>
   </si>
   <si>
     <t>CA_094</t>
   </si>
   <si>
-    <t>必填参数period不传，periodType为year</t>
+    <t>必填参数period值为空，periodType为day</t>
   </si>
   <si>
     <t>CA_095</t>
   </si>
   <si>
-    <t>必填参数period值为空，periodType为day</t>
+    <t>必填参数period值为空，periodType为month</t>
   </si>
   <si>
     <t>CA_096</t>
   </si>
   <si>
-    <t>必填参数period值为空，periodType为month</t>
+    <t>必填参数period值为空，periodType为year</t>
   </si>
   <si>
     <t>CA_097</t>
   </si>
   <si>
-    <t>必填参数period值为空，periodType为year</t>
+    <t>必填参数period值为空格，periodType为day</t>
   </si>
   <si>
     <t>CA_098</t>
   </si>
   <si>
-    <t>必填参数period值为空格，periodType为day</t>
+    <t>必填参数period值为空格，periodType为month</t>
   </si>
   <si>
     <t>CA_099</t>
   </si>
   <si>
-    <t>必填参数period值为空格，periodType为month</t>
+    <t>必填参数period值为空格，periodType为year</t>
   </si>
   <si>
     <t>CA_100</t>
   </si>
   <si>
-    <t>必填参数period值为空格，periodType为year</t>
+    <t>必填参数period值为0，periodType为day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0</t>
   </si>
   <si>
     <t>CA_101</t>
   </si>
   <si>
-    <t>必填参数period值为0，periodType为day</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0</t>
+    <t>必填参数period值为0，periodType为month</t>
   </si>
   <si>
     <t>CA_102</t>
   </si>
   <si>
-    <t>必填参数period值为0，periodType为month</t>
+    <t>必填参数period值为0，periodType为year</t>
   </si>
   <si>
     <t>CA_103</t>
   </si>
   <si>
-    <t>必填参数period值为0，periodType为year</t>
+    <t>必填参数period值为-1，periodType为day</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1</t>
   </si>
   <si>
     <t>CA_104</t>
   </si>
   <si>
-    <t>必填参数period值为-1，periodType为day</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -1</t>
+    <t>必填参数period值为-1，periodType为month</t>
   </si>
   <si>
     <t>CA_105</t>
   </si>
   <si>
-    <t>必填参数period值为-1，periodType为month</t>
+    <t>必填参数period值为-1，periodType为year</t>
   </si>
   <si>
     <t>CA_106</t>
   </si>
   <si>
-    <t>必填参数period值为-1，periodType为year</t>
+    <t>必填参数period值为1.1，periodType为day</t>
   </si>
   <si>
     <t>CA_107</t>
   </si>
   <si>
-    <t>必填参数period值为1.1，periodType为day</t>
+    <t>必填参数period值为1.1，periodType为month</t>
   </si>
   <si>
     <t>CA_108</t>
   </si>
   <si>
-    <t>必填参数period值为1.1，periodType为month</t>
+    <t>必填参数period值为1.1，periodType为year</t>
   </si>
   <si>
     <t>CA_109</t>
   </si>
   <si>
-    <t>必填参数period值为1.1，periodType为year</t>
+    <t>必填参数period值为null，periodType为day</t>
   </si>
   <si>
     <t>CA_110</t>
   </si>
   <si>
-    <t>必填参数period值为null，periodType为day</t>
+    <t>必填参数period值为null，periodType为month</t>
   </si>
   <si>
     <t>CA_111</t>
   </si>
   <si>
-    <t>必填参数period值为null，periodType为month</t>
+    <t>必填参数period值为null，periodType为year</t>
   </si>
   <si>
     <t>CA_112</t>
   </si>
   <si>
-    <t>必填参数period值为null，periodType为year</t>
+    <t>必填参数period值为true，periodType为day</t>
   </si>
   <si>
     <t>CA_113</t>
   </si>
   <si>
-    <t>必填参数period值为true，periodType为day</t>
+    <t>必填参数period值为true，periodType为month</t>
   </si>
   <si>
     <t>CA_114</t>
   </si>
   <si>
-    <t>必填参数period值为true，periodType为month</t>
+    <t>必填参数period值为true，periodType为year</t>
   </si>
   <si>
     <t>CA_115</t>
   </si>
   <si>
-    <t>必填参数period值为true，periodType为year</t>
+    <t>必填参数period值为@，periodType为day</t>
+  </si>
+  <si>
+    <t>@</t>
   </si>
   <si>
     <t>CA_116</t>
   </si>
   <si>
-    <t>必填参数period值为@，periodType为day</t>
-  </si>
-  <si>
-    <t>@</t>
+    <t>必填参数period值为@，periodType为month</t>
   </si>
   <si>
     <t>CA_117</t>
   </si>
   <si>
-    <t>必填参数period值为@，periodType为month</t>
+    <t>必填参数period值为@，periodType为year</t>
   </si>
   <si>
     <t>CA_118</t>
   </si>
   <si>
-    <t>必填参数period值为@，periodType为year</t>
+    <t>必填参数period值为31，periodType为day</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>CA_119</t>
   </si>
   <si>
-    <t>必填参数period值为31，periodType为day</t>
-  </si>
-  <si>
-    <t>31</t>
+    <t>必填参数period值为13，periodType为month</t>
   </si>
   <si>
     <t>CA_120</t>
   </si>
   <si>
-    <t>必填参数period值为13，periodType为month</t>
+    <t>必填参数period值为4，periodType为year</t>
   </si>
   <si>
     <t>CA_121</t>
   </si>
   <si>
-    <t>必填参数period值为4，periodType为year</t>
+    <t>必填参数periodType不传</t>
   </si>
   <si>
     <t>CA_122</t>
   </si>
   <si>
-    <t>必填参数periodType不传</t>
+    <t>必填参数periodType为空</t>
   </si>
   <si>
     <t>CA_123</t>
   </si>
   <si>
-    <t>必填参数periodType为空</t>
+    <t>必填参数periodType为空格</t>
   </si>
   <si>
     <t>CA_124</t>
   </si>
   <si>
-    <t>必填参数periodType为空格</t>
+    <t>必填参数periodType为month+空格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month </t>
   </si>
   <si>
     <t>CA_125</t>
   </si>
   <si>
-    <t>必填参数periodType为month+空格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">month </t>
+    <t>必填参数periodType为空格+month</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> month</t>
   </si>
   <si>
     <t>CA_126</t>
   </si>
   <si>
-    <t>必填参数periodType为空格+month</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> month</t>
+    <t>必填参数periodType错误 day1</t>
+  </si>
+  <si>
+    <t>day1</t>
   </si>
   <si>
     <t>CA_127</t>
   </si>
   <si>
-    <t>必填参数periodType错误 day1</t>
-  </si>
-  <si>
-    <t>day1</t>
+    <t>必填参数periodType为true</t>
   </si>
   <si>
     <t>CA_128</t>
   </si>
   <si>
-    <t>必填参数periodType为true</t>
+    <t>必填参数periodType为null</t>
   </si>
   <si>
     <t>CA_129</t>
   </si>
   <si>
-    <t>必填参数periodType为null</t>
+    <t>必填参数periodType为特殊字符@</t>
   </si>
   <si>
     <t>CA_130</t>
   </si>
   <si>
-    <t>必填参数periodType为特殊字符@</t>
+    <t>必填参数periodt和periodType都不传</t>
   </si>
   <si>
     <t>CA_131</t>
   </si>
   <si>
-    <t>必填参数periodt和periodType都不传</t>
+    <t>必填参数periodt和periodType都为空</t>
   </si>
   <si>
     <t>CA_132</t>
   </si>
   <si>
-    <t>必填参数periodt和periodType都为空</t>
+    <t>必填参数cardType不传</t>
   </si>
   <si>
     <t>CA_133</t>
   </si>
   <si>
-    <t>必填参数cardType不传</t>
+    <t>必填参数cardType为空</t>
   </si>
   <si>
     <t>CA_134</t>
   </si>
   <si>
-    <t>必填参数cardType为空</t>
+    <t>必填参数cardType为空格</t>
   </si>
   <si>
     <t>CA_135</t>
   </si>
   <si>
-    <t>必填参数cardType为空格</t>
+    <t>必填参数cardType错误"身份证1"</t>
+  </si>
+  <si>
+    <t>身份证1</t>
   </si>
   <si>
     <t>CA_136</t>
   </si>
   <si>
-    <t>必填参数cardType错误"身份证1"</t>
-  </si>
-  <si>
-    <t>身份证1</t>
+    <t>必填参数cardType为"身份证+空格"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">身份证 </t>
   </si>
   <si>
     <t>CA_137</t>
   </si>
   <si>
-    <t>必填参数cardType为"身份证+空格"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">身份证 </t>
+    <t>必填参数cardType为"空格+身份证"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 身份证</t>
   </si>
   <si>
     <t>CA_138</t>
   </si>
   <si>
-    <t>必填参数cardType为"空格+身份证"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 身份证</t>
+    <t>必填参数cardNumber不传</t>
   </si>
   <si>
     <t>CA_139</t>
   </si>
   <si>
-    <t>必填参数cardNumber不传</t>
+    <t>必填参数cardNumber为空</t>
   </si>
   <si>
     <t>CA_140</t>
   </si>
   <si>
-    <t>必填参数cardNumber为空</t>
+    <t>必填参数cardNumber-身份证号18位最后一位x</t>
+  </si>
+  <si>
+    <t>11011119880513123x</t>
   </si>
   <si>
     <t>CA_141</t>
   </si>
   <si>
-    <t>必填参数cardNumber-身份证号18位最后一位x</t>
-  </si>
-  <si>
-    <t>11011119880513123x</t>
+    <t>必填参数cardNumber-身份证号18位最后一位X</t>
+  </si>
+  <si>
+    <t>11011119880513123X</t>
   </si>
   <si>
     <t>CA_142</t>
   </si>
   <si>
-    <t>必填参数cardNumber-身份证号18位最后一位X</t>
-  </si>
-  <si>
-    <t>11011119880513123X</t>
+    <t>必填参数cardNumber-身份证号15数字</t>
+  </si>
+  <si>
+    <t>1101118201251</t>
   </si>
   <si>
     <t>CA_143</t>
   </si>
   <si>
-    <t>必填参数cardNumber-身份证号15数字</t>
-  </si>
-  <si>
-    <t>1101118201251</t>
+    <t>必填参数cardNumber为空格</t>
   </si>
   <si>
     <t>CA_144</t>
   </si>
   <si>
-    <t>必填参数cardNumber为空格</t>
+    <t>必填参数cardNumber错误"身份证1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110111198805131234 </t>
   </si>
   <si>
     <t>CA_145</t>
   </si>
   <si>
-    <t>必填参数cardNumber错误"身份证1"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110111198805131234 </t>
+    <t>必填参数cardNumber为"110111198805131234+空格"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110111198805131234</t>
   </si>
   <si>
     <t>CA_146</t>
   </si>
   <si>
-    <t>必填参数cardNumber为"110111198805131234+空格"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 110111198805131234</t>
+    <t>必填参数cardNumber为"空格+110111198805131234"</t>
   </si>
   <si>
     <t>CA_147</t>
   </si>
   <si>
-    <t>必填参数cardNumber为"空格+110111198805131234"</t>
+    <t>必填参数cardNumber-身份证号为14位</t>
+  </si>
+  <si>
+    <t>11011119880513</t>
   </si>
   <si>
     <t>CA_148</t>
   </si>
   <si>
-    <t>必填参数cardNumber-身份证号为14位</t>
-  </si>
-  <si>
-    <t>11011119880513</t>
+    <t>必填参数cardNumber-身份证号为16位</t>
+  </si>
+  <si>
+    <t>1101111988051312</t>
   </si>
   <si>
     <t>CA_149</t>
   </si>
   <si>
-    <t>必填参数cardNumber-身份证号为16位</t>
-  </si>
-  <si>
-    <t>1101111988051312</t>
+    <t>必填参数cardNumber-身份证号为17位</t>
+  </si>
+  <si>
+    <t>11011119880513123</t>
   </si>
   <si>
     <t>CA_150</t>
   </si>
   <si>
-    <t>必填参数cardNumber-身份证号为17位</t>
-  </si>
-  <si>
-    <t>11011119880513123</t>
+    <t>必填参数cardNumber-身份证号为19位</t>
+  </si>
+  <si>
+    <t>1101111988051312341</t>
   </si>
   <si>
     <t>CA_151</t>
   </si>
   <si>
-    <t>必填参数cardNumber-身份证号为19位</t>
-  </si>
-  <si>
-    <t>1101111988051312341</t>
+    <t>必填参数cardNumber-身份证号18位最后一位y</t>
+  </si>
+  <si>
+    <t>11011119880513123y</t>
   </si>
   <si>
     <t>CA_152</t>
   </si>
   <si>
-    <t>必填参数cardNumber-身份证号18位最后一位y</t>
-  </si>
-  <si>
-    <t>11011119880513123y</t>
+    <t>必填参数cardType和cardNumber都不传</t>
   </si>
   <si>
     <t>CA_153</t>
   </si>
   <si>
-    <t>必填参数cardType和cardNumber都不传</t>
+    <t>必填参数cardType和cardNumber都为空</t>
   </si>
   <si>
     <t>CA_154</t>
   </si>
   <si>
-    <t>必填参数cardType和cardNumber都为空</t>
+    <t>非必填参数email为空</t>
   </si>
   <si>
     <t>CA_155</t>
   </si>
   <si>
-    <t>非必填参数email为空</t>
+    <t>非必填参数email为空格</t>
   </si>
   <si>
     <t>CA_156</t>
   </si>
   <si>
-    <t>非必填参数email为空格</t>
+    <t>非必填参数email为null</t>
   </si>
   <si>
     <t>CA_157</t>
   </si>
   <si>
-    <t>非必填参数email为null</t>
+    <t>非必填参数email为true</t>
   </si>
   <si>
     <t>CA_158</t>
   </si>
   <si>
-    <t>非必填参数email为true</t>
+    <t>非必填参数email格式错误</t>
+  </si>
+  <si>
+    <t>tsa</t>
   </si>
   <si>
     <t>CA_159</t>
   </si>
   <si>
-    <t>非必填参数email格式错误</t>
-  </si>
-  <si>
-    <t>tsa</t>
+    <t>tsa@</t>
   </si>
   <si>
     <t>CA_160</t>
-  </si>
-  <si>
-    <t>tsa@</t>
-  </si>
-  <si>
-    <t>CA_161</t>
   </si>
   <si>
     <t>tsa.cn</t>
@@ -2230,7 +2234,7 @@
     <t>必填参数username值为true</t>
   </si>
   <si>
-    <t>cn=@#￥@#￥%#￥……&amp;%</t>
+    <t>CA_161</t>
   </si>
 </sst>
 </file>
@@ -2239,9 +2243,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2304,11 +2308,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2319,16 +2323,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2342,19 +2338,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2375,14 +2378,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -2390,8 +2385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2404,16 +2400,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2441,25 +2445,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2477,31 +2493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2519,7 +2517,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2531,67 +2595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2603,19 +2613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,20 +2659,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2684,6 +2677,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2718,6 +2720,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2732,138 +2745,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2872,16 +2876,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3264,31 +3268,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q197"/>
+  <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD162"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="5.875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="6.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="2" customWidth="1"/>
-    <col min="14" max="14" width="7.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="7.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2"/>
-    <col min="17" max="17" width="9.625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="51" spans="1:17">
       <c r="A1" s="3" t="s">
@@ -6301,7 +6289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="60" s="2" customFormat="1" ht="58" customHeight="1" spans="1:19">
       <c r="A60" s="4" t="s">
         <v>17</v>
       </c>
@@ -6312,7 +6300,7 @@
         <v>178</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>180</v>
@@ -6325,7 +6313,7 @@
         <v>23</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J60" s="2">
         <v>111222</v>
@@ -6351,19 +6339,22 @@
       <c r="Q60" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="S60" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="61" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>180</v>
@@ -6375,9 +6366,6 @@
       <c r="H61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="J61" s="2">
         <v>111222</v>
       </c>
@@ -6408,26 +6396,29 @@
         <v>17</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J62" s="2">
-        <v>111222</v>
+      <c r="I62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>25</v>
@@ -6456,13 +6447,13 @@
         <v>17</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>21</v>
@@ -6478,7 +6469,7 @@
         <v>24</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>25</v>
@@ -6507,13 +6498,13 @@
         <v>17</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>21</v>
@@ -6529,7 +6520,7 @@
         <v>24</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>25</v>
@@ -6558,13 +6549,13 @@
         <v>17</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>21</v>
@@ -6580,7 +6571,7 @@
         <v>24</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K65" s="2" t="s">
         <v>25</v>
@@ -6609,13 +6600,13 @@
         <v>17</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>21</v>
@@ -6631,7 +6622,7 @@
         <v>24</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>25</v>
@@ -6660,19 +6651,19 @@
         <v>17</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="2" t="s">
@@ -6682,7 +6673,7 @@
         <v>24</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>25</v>
@@ -6711,13 +6702,13 @@
         <v>17</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>180</v>
@@ -6733,7 +6724,7 @@
         <v>24</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>25</v>
@@ -6762,13 +6753,13 @@
         <v>17</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>180</v>
@@ -6784,7 +6775,7 @@
         <v>24</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>25</v>
@@ -6813,13 +6804,13 @@
         <v>17</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>180</v>
@@ -6834,9 +6825,6 @@
       <c r="I70" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="K70" s="2" t="s">
         <v>25</v>
       </c>
@@ -6864,19 +6852,19 @@
         <v>17</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="2" t="s">
@@ -6885,8 +6873,11 @@
       <c r="I71" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="J71" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="K71" s="2" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>26</v>
@@ -6912,13 +6903,13 @@
         <v>17</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>21</v>
@@ -6937,7 +6928,7 @@
         <v>223</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>26</v>
@@ -6963,13 +6954,13 @@
         <v>17</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>21</v>
@@ -6988,7 +6979,7 @@
         <v>223</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>26</v>
@@ -7014,13 +7005,13 @@
         <v>17</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>21</v>
@@ -7039,7 +7030,7 @@
         <v>223</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>26</v>
@@ -7065,13 +7056,13 @@
         <v>17</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>21</v>
@@ -7090,7 +7081,7 @@
         <v>223</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>26</v>
@@ -7116,19 +7107,19 @@
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="2" t="s">
@@ -7141,7 +7132,7 @@
         <v>223</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>26</v>
@@ -7167,19 +7158,19 @@
         <v>17</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="2" t="s">
@@ -7192,7 +7183,7 @@
         <v>223</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>26</v>
@@ -7218,13 +7209,13 @@
         <v>17</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>180</v>
@@ -7242,9 +7233,6 @@
       <c r="J78" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="K78" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="L78" s="2" t="s">
         <v>26</v>
       </c>
@@ -7269,19 +7257,19 @@
         <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="2" t="s">
@@ -7293,8 +7281,11 @@
       <c r="J79" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="K79" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="L79" s="2" t="s">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>27</v>
@@ -7317,13 +7308,13 @@
         <v>17</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>21</v>
@@ -7345,7 +7336,7 @@
         <v>25</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>27</v>
@@ -7368,13 +7359,13 @@
         <v>17</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>21</v>
@@ -7396,7 +7387,7 @@
         <v>25</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>27</v>
@@ -7419,13 +7410,13 @@
         <v>17</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>21</v>
@@ -7447,7 +7438,7 @@
         <v>25</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>27</v>
@@ -7470,13 +7461,13 @@
         <v>17</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>21</v>
@@ -7498,7 +7489,7 @@
         <v>25</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>27</v>
@@ -7521,13 +7512,13 @@
         <v>17</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>21</v>
@@ -7549,7 +7540,7 @@
         <v>25</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>27</v>
@@ -7572,13 +7563,13 @@
         <v>17</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>21</v>
@@ -7600,7 +7591,7 @@
         <v>25</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>27</v>
@@ -7623,13 +7614,13 @@
         <v>17</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>21</v>
@@ -7651,7 +7642,7 @@
         <v>25</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>27</v>
@@ -7674,19 +7665,19 @@
         <v>17</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="2" t="s">
@@ -7702,7 +7693,7 @@
         <v>25</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>27</v>
@@ -7725,13 +7716,13 @@
         <v>17</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>180</v>
@@ -7753,7 +7744,7 @@
         <v>25</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>27</v>
@@ -7776,13 +7767,13 @@
         <v>17</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>180</v>
@@ -7804,7 +7795,7 @@
         <v>25</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>27</v>
@@ -7827,13 +7818,13 @@
         <v>17</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>180</v>
@@ -7855,7 +7846,7 @@
         <v>25</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>27</v>
@@ -7878,13 +7869,13 @@
         <v>17</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>180</v>
@@ -7905,9 +7896,6 @@
       <c r="K91" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L91" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="M91" s="2" t="s">
         <v>27</v>
       </c>
@@ -7929,13 +7917,13 @@
         <v>17</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C92" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>180</v>
@@ -7956,8 +7944,8 @@
       <c r="K92" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M92" s="2" t="s">
-        <v>27</v>
+      <c r="L92" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>56</v>
@@ -7977,13 +7965,13 @@
         <v>17</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>180</v>
@@ -8008,7 +7996,7 @@
         <v>26</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>29</v>
@@ -8025,13 +8013,13 @@
         <v>17</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>180</v>
@@ -8056,7 +8044,7 @@
         <v>26</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>29</v>
@@ -8073,13 +8061,13 @@
         <v>17</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>180</v>
@@ -8103,8 +8091,11 @@
       <c r="L95" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="M95" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="N95" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>29</v>
@@ -8121,13 +8112,13 @@
         <v>17</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>180</v>
@@ -8155,7 +8146,7 @@
         <v>188</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>29</v>
@@ -8172,13 +8163,13 @@
         <v>17</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>180</v>
@@ -8206,7 +8197,7 @@
         <v>188</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>29</v>
@@ -8223,13 +8214,13 @@
         <v>17</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>180</v>
@@ -8254,10 +8245,10 @@
         <v>26</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>29</v>
@@ -8274,13 +8265,13 @@
         <v>17</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>180</v>
@@ -8305,10 +8296,10 @@
         <v>26</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>29</v>
@@ -8325,13 +8316,13 @@
         <v>17</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>180</v>
@@ -8356,10 +8347,10 @@
         <v>26</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>29</v>
@@ -8376,13 +8367,13 @@
         <v>17</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>180</v>
@@ -8407,10 +8398,10 @@
         <v>26</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>29</v>
@@ -8427,13 +8418,13 @@
         <v>17</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>180</v>
@@ -8461,7 +8452,7 @@
         <v>295</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>29</v>
@@ -8478,13 +8469,13 @@
         <v>17</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>180</v>
@@ -8512,7 +8503,7 @@
         <v>295</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>29</v>
@@ -8529,13 +8520,13 @@
         <v>17</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>180</v>
@@ -8560,10 +8551,10 @@
         <v>26</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>29</v>
@@ -8580,13 +8571,13 @@
         <v>17</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>180</v>
@@ -8614,7 +8605,7 @@
         <v>302</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>29</v>
@@ -8631,13 +8622,13 @@
         <v>17</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>180</v>
@@ -8665,7 +8656,7 @@
         <v>302</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>29</v>
@@ -8682,13 +8673,13 @@
         <v>17</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>180</v>
@@ -8713,10 +8704,10 @@
         <v>26</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>29</v>
@@ -8733,13 +8724,13 @@
         <v>17</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>180</v>
@@ -8767,7 +8758,7 @@
         <v>208</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>29</v>
@@ -8784,13 +8775,13 @@
         <v>17</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>180</v>
@@ -8818,7 +8809,7 @@
         <v>208</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>29</v>
@@ -8835,13 +8826,13 @@
         <v>17</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>180</v>
@@ -8866,10 +8857,10 @@
         <v>26</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>29</v>
@@ -8886,13 +8877,13 @@
         <v>17</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>180</v>
@@ -8920,7 +8911,7 @@
         <v>191</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>29</v>
@@ -8937,13 +8928,13 @@
         <v>17</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>180</v>
@@ -8971,7 +8962,7 @@
         <v>191</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>29</v>
@@ -8988,13 +8979,13 @@
         <v>17</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>180</v>
@@ -9019,10 +9010,10 @@
         <v>26</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>29</v>
@@ -9039,13 +9030,13 @@
         <v>17</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>180</v>
@@ -9070,10 +9061,10 @@
         <v>26</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>29</v>
@@ -9090,13 +9081,13 @@
         <v>17</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>180</v>
@@ -9121,10 +9112,10 @@
         <v>26</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>29</v>
@@ -9141,13 +9132,13 @@
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>180</v>
@@ -9172,10 +9163,10 @@
         <v>26</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>29</v>
@@ -9192,13 +9183,13 @@
         <v>17</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>180</v>
@@ -9226,7 +9217,7 @@
         <v>327</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>29</v>
@@ -9243,13 +9234,13 @@
         <v>17</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>180</v>
@@ -9277,7 +9268,7 @@
         <v>327</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>29</v>
@@ -9294,13 +9285,13 @@
         <v>17</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>180</v>
@@ -9325,10 +9316,10 @@
         <v>26</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>29</v>
@@ -9345,13 +9336,13 @@
         <v>17</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>180</v>
@@ -9376,10 +9367,10 @@
         <v>26</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>334</v>
+        <v>92</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>29</v>
@@ -9396,13 +9387,13 @@
         <v>17</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>180</v>
@@ -9427,10 +9418,10 @@
         <v>26</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>29</v>
@@ -9442,18 +9433,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="122" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>180</v>
@@ -9478,10 +9469,7 @@
         <v>26</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>29</v>
@@ -9493,18 +9481,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" ht="33" customHeight="1" spans="1:17">
+    <row r="123" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A123" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>180</v>
@@ -9531,6 +9519,9 @@
       <c r="M123" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="N123" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="O123" s="2" t="s">
         <v>29</v>
       </c>
@@ -9541,18 +9532,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" ht="33" customHeight="1" spans="1:17">
+    <row r="124" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A124" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>180</v>
@@ -9580,7 +9571,7 @@
         <v>27</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>29</v>
@@ -9592,18 +9583,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" ht="33" customHeight="1" spans="1:17">
+    <row r="125" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A125" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>180</v>
@@ -9631,7 +9622,7 @@
         <v>27</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>196</v>
+        <v>347</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>29</v>
@@ -9643,18 +9634,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" ht="33" customHeight="1" spans="1:17">
+    <row r="126" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A126" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>180</v>
@@ -9682,7 +9673,7 @@
         <v>27</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>29</v>
@@ -9694,18 +9685,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" ht="33" customHeight="1" spans="1:17">
+    <row r="127" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A127" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>180</v>
@@ -9733,7 +9724,7 @@
         <v>27</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>29</v>
@@ -9745,18 +9736,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" ht="33" customHeight="1" spans="1:17">
+    <row r="128" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A128" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>180</v>
@@ -9784,7 +9775,7 @@
         <v>27</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>353</v>
+        <v>202</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>29</v>
@@ -9796,18 +9787,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" ht="33" customHeight="1" spans="1:17">
+    <row r="129" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A129" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>180</v>
@@ -9835,7 +9826,7 @@
         <v>27</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>29</v>
@@ -9847,18 +9838,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" ht="33" customHeight="1" spans="1:17">
+    <row r="130" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A130" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>180</v>
@@ -9886,7 +9877,7 @@
         <v>27</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>191</v>
+        <v>327</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>29</v>
@@ -9898,18 +9889,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" ht="33" customHeight="1" spans="1:17">
+    <row r="131" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A131" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>180</v>
@@ -9933,12 +9924,6 @@
       <c r="L131" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M131" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N131" s="2" t="s">
-        <v>327</v>
-      </c>
       <c r="O131" s="2" t="s">
         <v>29</v>
       </c>
@@ -9949,18 +9934,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" ht="33" customHeight="1" spans="1:17">
+    <row r="132" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A132" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>180</v>
@@ -9984,6 +9969,12 @@
       <c r="L132" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="M132" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="O132" s="2" t="s">
         <v>29</v>
       </c>
@@ -9994,18 +9985,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" ht="33" customHeight="1" spans="1:17">
+    <row r="133" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A133" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>180</v>
@@ -10030,13 +10021,10 @@
         <v>26</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>188</v>
+        <v>65</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="P133" s="2" t="s">
         <v>30</v>
@@ -10045,18 +10033,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" ht="33" customHeight="1" spans="1:17">
+    <row r="134" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A134" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>180</v>
@@ -10086,6 +10074,9 @@
       <c r="N134" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="O134" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="P134" s="2" t="s">
         <v>30</v>
       </c>
@@ -10093,18 +10084,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" ht="33" customHeight="1" spans="1:17">
+    <row r="135" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A135" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>180</v>
@@ -10135,7 +10126,7 @@
         <v>56</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P135" s="2" t="s">
         <v>30</v>
@@ -10144,18 +10135,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" ht="33" customHeight="1" spans="1:17">
+    <row r="136" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A136" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>180</v>
@@ -10186,7 +10177,7 @@
         <v>56</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>196</v>
+        <v>372</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>30</v>
@@ -10195,18 +10186,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" ht="33" customHeight="1" spans="1:17">
+    <row r="137" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A137" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>180</v>
@@ -10237,7 +10228,7 @@
         <v>56</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P137" s="2" t="s">
         <v>30</v>
@@ -10246,18 +10237,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" ht="33" customHeight="1" spans="1:17">
+    <row r="138" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A138" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>180</v>
@@ -10288,7 +10279,7 @@
         <v>56</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P138" s="2" t="s">
         <v>30</v>
@@ -10297,18 +10288,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" ht="33" customHeight="1" spans="1:17">
+    <row r="139" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A139" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>180</v>
@@ -10339,27 +10330,24 @@
         <v>56</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="P139" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q139" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="140" ht="33" customHeight="1" spans="1:17">
+    <row r="140" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A140" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>180</v>
@@ -10390,30 +10378,33 @@
         <v>56</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="Q140" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="141" ht="33" customHeight="1" spans="1:17">
+    <row r="141" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A141" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>178</v>
+        <v>383</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="2" t="s">
@@ -10438,27 +10429,27 @@
         <v>56</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>188</v>
+        <v>385</v>
       </c>
       <c r="Q141" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="142" ht="33" customHeight="1" spans="1:17">
+    <row r="142" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A142" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>21</v>
@@ -10489,27 +10480,27 @@
         <v>56</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q142" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="143" ht="33" customHeight="1" spans="1:17">
+    <row r="143" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A143" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>21</v>
@@ -10540,27 +10531,27 @@
         <v>56</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q143" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="144" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="144" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A144" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C144" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C144" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>21</v>
@@ -10591,27 +10582,27 @@
         <v>56</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P144" s="2" t="s">
-        <v>391</v>
+        <v>194</v>
       </c>
       <c r="Q144" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="145" ht="33" customHeight="1" spans="1:17">
+    <row r="145" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A145" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>21</v>
@@ -10642,27 +10633,27 @@
         <v>56</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>196</v>
+        <v>396</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="146" ht="33" customHeight="1" spans="1:17">
+    <row r="146" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A146" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>21</v>
@@ -10693,27 +10684,27 @@
         <v>56</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="Q146" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="147" ht="33" customHeight="1" spans="1:17">
+    <row r="147" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A147" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>21</v>
@@ -10744,27 +10735,27 @@
         <v>56</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>399</v>
+        <v>30</v>
       </c>
       <c r="Q147" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="148" ht="33" customHeight="1" spans="1:17">
+    <row r="148" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A148" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>21</v>
@@ -10795,27 +10786,27 @@
         <v>56</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>30</v>
+        <v>404</v>
       </c>
       <c r="Q148" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="149" ht="33" customHeight="1" spans="1:17">
+    <row r="149" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A149" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>21</v>
@@ -10846,27 +10837,27 @@
         <v>56</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P149" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q149" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="150" ht="33" customHeight="1" spans="1:17">
+    <row r="150" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A150" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>21</v>
@@ -10897,27 +10888,27 @@
         <v>56</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q150" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="151" ht="33" customHeight="1" spans="1:17">
+    <row r="151" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A151" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>21</v>
@@ -10948,27 +10939,27 @@
         <v>56</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="Q151" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="152" ht="33" customHeight="1" spans="1:17">
+    <row r="152" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A152" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>21</v>
@@ -10999,33 +10990,33 @@
         <v>56</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="Q152" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="153" ht="33" customHeight="1" spans="1:17">
+    <row r="153" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A153" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="2" t="s">
@@ -11050,27 +11041,24 @@
         <v>56</v>
       </c>
       <c r="O153" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="P153" s="2" t="s">
-        <v>416</v>
+        <v>29</v>
       </c>
       <c r="Q153" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="154" ht="33" customHeight="1" spans="1:17">
+    <row r="154" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A154" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>180</v>
@@ -11100,22 +11088,28 @@
       <c r="N154" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="O154" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P154" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="Q154" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="155" ht="33" customHeight="1" spans="1:17">
+    <row r="155" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A155" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>180</v>
@@ -11146,27 +11140,27 @@
         <v>56</v>
       </c>
       <c r="O155" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P155" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="Q155" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="156" ht="33" customHeight="1" spans="1:17">
+      <c r="Q155" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="156" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A156" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>180</v>
@@ -11197,27 +11191,27 @@
         <v>56</v>
       </c>
       <c r="O156" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P156" s="2" t="s">
         <v>413</v>
       </c>
       <c r="Q156" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" ht="33" customHeight="1" spans="1:17">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A157" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>180</v>
@@ -11248,27 +11242,27 @@
         <v>56</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P157" s="2" t="s">
         <v>413</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" ht="33" customHeight="1" spans="1:17">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="158" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A158" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>180</v>
@@ -11299,27 +11293,27 @@
         <v>56</v>
       </c>
       <c r="O158" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P158" s="2" t="s">
         <v>413</v>
       </c>
       <c r="Q158" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="159" ht="33" customHeight="1" spans="1:17">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="159" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A159" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>178</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>180</v>
@@ -11350,21 +11344,21 @@
         <v>56</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P159" s="2" t="s">
         <v>413</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="160" ht="33" customHeight="1" spans="1:17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="160" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A160" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>178</v>
@@ -11401,21 +11395,21 @@
         <v>56</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P160" s="2" t="s">
         <v>413</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="161" ht="33" customHeight="1" spans="1:17">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="161" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
       <c r="A161" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>178</v>
@@ -11452,102 +11446,19 @@
         <v>56</v>
       </c>
       <c r="O161" s="2" t="s">
-        <v>378</v>
+        <v>29</v>
       </c>
       <c r="P161" s="2" t="s">
         <v>413</v>
       </c>
       <c r="Q161" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="162" ht="33" customHeight="1" spans="1:17">
-      <c r="A162" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G162" s="4"/>
-      <c r="H162" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J162" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K162" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L162" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M162" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N162" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O162" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="P162" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q162" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="163" ht="33" customHeight="1"/>
-    <row r="164" ht="33" customHeight="1"/>
-    <row r="165" ht="33" customHeight="1"/>
-    <row r="166" ht="33" customHeight="1"/>
-    <row r="167" ht="33" customHeight="1"/>
-    <row r="168" ht="33" customHeight="1"/>
-    <row r="169" ht="33" customHeight="1"/>
-    <row r="170" ht="33" customHeight="1"/>
-    <row r="171" ht="33" customHeight="1"/>
-    <row r="172" ht="33" customHeight="1"/>
-    <row r="173" ht="33" customHeight="1"/>
-    <row r="174" ht="33" customHeight="1"/>
-    <row r="175" ht="33" customHeight="1"/>
-    <row r="176" ht="33" customHeight="1"/>
-    <row r="177" ht="33" customHeight="1"/>
-    <row r="178" ht="33" customHeight="1"/>
-    <row r="179" ht="33" customHeight="1"/>
-    <row r="180" ht="33" customHeight="1"/>
-    <row r="181" ht="33" customHeight="1"/>
-    <row r="182" ht="33" customHeight="1"/>
-    <row r="183" ht="33" customHeight="1"/>
-    <row r="184" ht="33" customHeight="1"/>
-    <row r="185" ht="33" customHeight="1"/>
-    <row r="186" ht="33" customHeight="1"/>
-    <row r="187" ht="33" customHeight="1"/>
-    <row r="188" ht="33" customHeight="1"/>
-    <row r="189" ht="33" customHeight="1"/>
-    <row r="190" ht="33" customHeight="1"/>
-    <row r="191" ht="33" customHeight="1"/>
-    <row r="192" ht="33" customHeight="1"/>
-    <row r="193" ht="33" customHeight="1"/>
-    <row r="194" ht="33" customHeight="1"/>
-    <row r="195" ht="33" customHeight="1"/>
-    <row r="196" ht="33" customHeight="1"/>
-    <row r="197" ht="33" customHeight="1"/>
   </sheetData>
+  <autoFilter ref="A1:Q161">
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q4" r:id="rId1" display="tsa@tsa.cn"/>
@@ -11607,39 +11518,39 @@
     <hyperlink ref="Q57" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q58" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q59" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q60" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q62" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q63" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q67" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q64" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q65" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q68" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q65" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q66" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q69" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q71" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q72" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q77" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q73" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q78" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q74" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q75" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q76" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q71" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q70" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q78" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q69" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q79" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q70" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q80" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q90" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q81" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q91" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q82" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q83" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q84" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q92" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q91" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q87" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q88" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q89" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q90" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q84" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q85" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q86" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q87" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q67" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q66" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q60" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q61" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q62" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q77" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q76" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q92" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q93" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q94" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q95" r:id="rId1" display="tsa@tsa.cn"/>
@@ -11672,25 +11583,25 @@
     <hyperlink ref="Q122" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q123" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q124" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q125" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q128" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q127" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q129" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q130" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q131" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q133" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q134" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q135" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q136" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q137" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q138" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q153" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q154" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q128" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q125" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q126" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q132" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q131" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q139" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q154" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q155" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q129" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q126" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q127" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q133" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q132" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q140" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q141" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q144" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q145" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q146" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q147" r:id="rId1" display="tsa@tsa.cn"/>
@@ -11699,20 +11610,18 @@
     <hyperlink ref="Q150" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q151" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q152" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q153" r:id="rId1" display="tsa@tsa.cn"/>
+    <hyperlink ref="Q141" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q142" r:id="rId1" display="tsa@tsa.cn"/>
     <hyperlink ref="Q143" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q144" r:id="rId1" display="tsa@tsa.cn"/>
-    <hyperlink ref="Q156" r:id="rId1" display="空"/>
-    <hyperlink ref="Q157" r:id="rId1" display=" "/>
-    <hyperlink ref="Q158" r:id="rId1" display="null"/>
-    <hyperlink ref="Q159" r:id="rId1" display="true"/>
-    <hyperlink ref="Q160" r:id="rId1" display="tsa"/>
-    <hyperlink ref="Q161" r:id="rId1" display="tsa@"/>
-    <hyperlink ref="Q162" r:id="rId1" display="tsa.cn"/>
+    <hyperlink ref="Q155" r:id="rId1" display="空"/>
+    <hyperlink ref="Q156" r:id="rId1" display=" "/>
+    <hyperlink ref="Q157" r:id="rId1" display="null"/>
+    <hyperlink ref="Q158" r:id="rId1" display="true"/>
+    <hyperlink ref="Q159" r:id="rId1" display="tsa"/>
+    <hyperlink ref="Q160" r:id="rId1" display="tsa@"/>
+    <hyperlink ref="Q161" r:id="rId1" display="tsa.cn"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -11722,8 +11631,8 @@
   <sheetPr/>
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I129" sqref="I129"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -12415,7 +12324,7 @@
         <v>441</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>56</v>
@@ -12502,7 +12411,7 @@
         <v>441</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>56</v>
@@ -12952,7 +12861,7 @@
         <v>441</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>146</v>
@@ -13039,7 +12948,7 @@
         <v>441</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>56</v>
@@ -13534,7 +13443,7 @@
         <v>441</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>28</v>
@@ -13621,7 +13530,7 @@
         <v>441</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>28</v>
@@ -14026,7 +13935,7 @@
         <v>441</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>56</v>
@@ -14068,7 +13977,7 @@
         <v>441</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>56</v>
@@ -14077,7 +13986,7 @@
         <v>437</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" s="2" customFormat="1" ht="58" customHeight="1" spans="1:16">
@@ -14113,7 +14022,7 @@
         <v>441</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>56</v>
@@ -16128,7 +16037,7 @@
         <v>581</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
@@ -16734,7 +16643,7 @@
         <v>24</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K114" s="2" t="s">
         <v>25</v>
@@ -16822,7 +16731,7 @@
         <v>24</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K116" s="2" t="s">
         <v>25</v>
@@ -17001,7 +16910,7 @@
         <v>440</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M120" s="2" t="s">
         <v>27</v>
@@ -17133,7 +17042,7 @@
         <v>440</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M123" s="2" t="s">
         <v>27</v>
@@ -17189,10 +17098,8 @@
   <sheetPr/>
   <dimension ref="A1:Q162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:Q162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17301,7 +17208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="3" ht="140.25" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -17350,7 +17257,7 @@
       </c>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="4" ht="140.25" spans="1:17">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
@@ -17401,7 +17308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="5" ht="140.25" spans="1:17">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -17452,7 +17359,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="6" ht="140.25" spans="1:17">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -17503,7 +17410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="7" ht="140.25" spans="1:17">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -17554,7 +17461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="8" ht="84" spans="1:17">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -17605,7 +17512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="9" ht="114.75" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -17656,7 +17563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="10" ht="140.25" spans="1:17">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -17707,7 +17614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="11" ht="140.25" spans="1:17">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -17758,7 +17665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="12" ht="140.25" spans="1:17">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -17809,7 +17716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="13" ht="140.25" spans="1:17">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -17860,7 +17767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="14" ht="140.25" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -17911,7 +17818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="15" ht="140.25" spans="1:17">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -17962,7 +17869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="16" ht="140.25" spans="1:17">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -18013,7 +17920,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="17" ht="140.25" spans="1:17">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -18064,7 +17971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="18" ht="140.25" spans="1:17">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -18115,7 +18022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="19" ht="140.25" spans="1:17">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -18166,7 +18073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="20" ht="140.25" spans="1:17">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -18217,7 +18124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="21" ht="140.25" spans="1:17">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -18268,7 +18175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="22" ht="140.25" spans="1:17">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -18319,7 +18226,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="23" ht="140.25" spans="1:17">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -18370,7 +18277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="24" ht="140.25" spans="1:17">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -18421,7 +18328,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="25" ht="140.25" spans="1:17">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
@@ -18472,7 +18379,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="26" ht="140.25" spans="1:17">
       <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
@@ -18523,7 +18430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="27" ht="140.25" spans="1:17">
       <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
@@ -18574,7 +18481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="28" ht="140.25" spans="1:17">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -18625,7 +18532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="29" ht="140.25" spans="1:17">
       <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
@@ -18676,7 +18583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="30" ht="140.25" spans="1:17">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -18727,7 +18634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="31" ht="140.25" spans="1:17">
       <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
@@ -18778,7 +18685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="32" ht="140.25" spans="1:17">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -18829,7 +18736,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="33" ht="140.25" spans="1:17">
       <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
@@ -18880,7 +18787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="34" ht="140.25" spans="1:17">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
@@ -18931,7 +18838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="35" ht="140.25" spans="1:17">
       <c r="A35" s="4" t="s">
         <v>17</v>
       </c>
@@ -18982,7 +18889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="36" ht="140.25" spans="1:17">
       <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
@@ -19033,7 +18940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="37" ht="140.25" spans="1:17">
       <c r="A37" s="4" t="s">
         <v>17</v>
       </c>
@@ -19084,7 +18991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="38" ht="140.25" spans="1:17">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
@@ -19135,7 +19042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="39" ht="140.25" spans="1:17">
       <c r="A39" s="4" t="s">
         <v>17</v>
       </c>
@@ -19186,7 +19093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="40" ht="140.25" spans="1:17">
       <c r="A40" s="4" t="s">
         <v>17</v>
       </c>
@@ -19237,7 +19144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="41" ht="140.25" spans="1:17">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
@@ -19288,7 +19195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="42" ht="140.25" spans="1:17">
       <c r="A42" s="4" t="s">
         <v>17</v>
       </c>
@@ -19339,7 +19246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="43" ht="140.25" spans="1:17">
       <c r="A43" s="4" t="s">
         <v>17</v>
       </c>
@@ -19390,7 +19297,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="44" ht="140.25" spans="1:17">
       <c r="A44" s="4" t="s">
         <v>17</v>
       </c>
@@ -19441,7 +19348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="45" ht="140.25" spans="1:17">
       <c r="A45" s="4" t="s">
         <v>17</v>
       </c>
@@ -19492,7 +19399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="46" ht="140.25" spans="1:17">
       <c r="A46" s="4" t="s">
         <v>17</v>
       </c>
@@ -19543,7 +19450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="47" ht="140.25" spans="1:17">
       <c r="A47" s="4" t="s">
         <v>17</v>
       </c>
@@ -19596,7 +19503,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="48" ht="140.25" spans="1:17">
       <c r="A48" s="4" t="s">
         <v>17</v>
       </c>
@@ -19647,7 +19554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="49" ht="140.25" spans="1:17">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
@@ -19698,7 +19605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="50" ht="140.25" spans="1:17">
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
@@ -19749,7 +19656,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="51" ht="140.25" spans="1:17">
       <c r="A51" s="4" t="s">
         <v>17</v>
       </c>
@@ -19800,7 +19707,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="52" ht="140.25" spans="1:17">
       <c r="A52" s="4" t="s">
         <v>17</v>
       </c>
@@ -19851,7 +19758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="53" ht="140.25" spans="1:17">
       <c r="A53" s="4" t="s">
         <v>17</v>
       </c>
@@ -19902,7 +19809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="54" ht="140.25" spans="1:17">
       <c r="A54" s="4" t="s">
         <v>172</v>
       </c>
@@ -19953,7 +19860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="55" ht="140.25" spans="1:17">
       <c r="A55" s="4" t="s">
         <v>172</v>
       </c>
@@ -20004,7 +19911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="56" ht="140.25" spans="1:17">
       <c r="A56" s="4" t="s">
         <v>17</v>
       </c>
@@ -20028,7 +19935,7 @@
         <v>23</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="J56" s="2">
         <v>111222</v>
@@ -20055,7 +19962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="57" ht="140.25" spans="1:17">
       <c r="A57" s="4" t="s">
         <v>17</v>
       </c>
@@ -20079,7 +19986,7 @@
         <v>23</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="J57" s="2">
         <v>111222</v>
@@ -20106,7 +20013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="58" ht="140.25" spans="1:17">
       <c r="A58" s="4" t="s">
         <v>17</v>
       </c>
@@ -20130,7 +20037,7 @@
         <v>23</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="J58" s="2">
         <v>111222</v>
@@ -20157,7 +20064,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="59" ht="140.25" spans="1:17">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
@@ -20181,7 +20088,7 @@
         <v>23</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>191</v>
+        <v>24</v>
       </c>
       <c r="J59" s="2">
         <v>111222</v>
@@ -20208,7 +20115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="60" ht="140.25" spans="1:17">
       <c r="A60" s="4" t="s">
         <v>17</v>
       </c>
@@ -20232,7 +20139,7 @@
         <v>23</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="J60" s="2">
         <v>111222</v>
@@ -20259,18 +20166,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="61" ht="140.25" spans="1:17">
       <c r="A61" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>180</v>
@@ -20283,7 +20190,7 @@
         <v>23</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="J61" s="2">
         <v>111222</v>
@@ -20310,18 +20217,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="62" ht="140.25" spans="1:17">
       <c r="A62" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>178</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>180</v>
@@ -20333,6 +20240,9 @@
       <c r="H62" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="I62" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="J62" s="2">
         <v>111222</v>
       </c>
@@ -20358,18 +20268,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="63" ht="140.25" spans="1:17">
       <c r="A63" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>21</v>
@@ -20409,18 +20319,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="64" ht="140.25" spans="1:17">
       <c r="A64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>21</v>
@@ -20436,7 +20346,7 @@
         <v>24</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>25</v>
@@ -20460,12 +20370,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="65" ht="140.25" spans="1:17">
       <c r="A65" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>19</v>
@@ -20511,12 +20421,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="66" ht="140.25" spans="1:17">
       <c r="A66" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>19</v>
@@ -20562,12 +20472,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="67" ht="140.25" spans="1:17">
       <c r="A67" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>19</v>
@@ -20589,7 +20499,7 @@
         <v>24</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K67" s="2" t="s">
         <v>25</v>
@@ -20613,12 +20523,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="68" ht="140.25" spans="1:17">
       <c r="A68" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>178</v>
@@ -20664,12 +20574,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="69" ht="140.25" spans="1:17">
       <c r="A69" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>178</v>
@@ -20715,12 +20625,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="70" ht="140.25" spans="1:17">
       <c r="A70" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>178</v>
@@ -20766,12 +20676,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="71" ht="140.25" spans="1:17">
       <c r="A71" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>178</v>
@@ -20792,6 +20702,7 @@
       <c r="I71" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="J71" s="2"/>
       <c r="K71" s="2" t="s">
         <v>25</v>
       </c>
@@ -20814,12 +20725,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="72" ht="140.25" spans="1:17">
       <c r="A72" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>19</v>
@@ -20865,12 +20776,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="73" ht="140.25" spans="1:17">
       <c r="A73" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>19</v>
@@ -20895,7 +20806,7 @@
         <v>223</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>26</v>
@@ -20916,12 +20827,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="74" ht="140.25" spans="1:17">
       <c r="A74" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>19</v>
@@ -20967,12 +20878,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="75" ht="140.25" spans="1:17">
       <c r="A75" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>19</v>
@@ -21018,12 +20929,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="76" ht="140.25" spans="1:17">
       <c r="A76" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>19</v>
@@ -21069,12 +20980,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="77" ht="140.25" spans="1:17">
       <c r="A77" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>178</v>
@@ -21099,7 +21010,7 @@
         <v>223</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>26</v>
@@ -21120,12 +21031,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="78" ht="140.25" spans="1:17">
       <c r="A78" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>178</v>
@@ -21171,12 +21082,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="79" ht="140.25" spans="1:17">
       <c r="A79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>178</v>
@@ -21200,6 +21111,7 @@
       <c r="J79" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="K79" s="2"/>
       <c r="L79" s="2" t="s">
         <v>26</v>
       </c>
@@ -21219,12 +21131,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="80" ht="84" spans="1:17">
       <c r="A80" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>19</v>
@@ -21270,12 +21182,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="81" ht="84" spans="1:17">
       <c r="A81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>19</v>
@@ -21321,12 +21233,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="82" ht="84" spans="1:17">
       <c r="A82" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>19</v>
@@ -21372,12 +21284,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="83" ht="84" spans="1:17">
       <c r="A83" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>19</v>
@@ -21423,12 +21335,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="84" ht="84" spans="1:17">
       <c r="A84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>19</v>
@@ -21456,7 +21368,7 @@
         <v>25</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>736</v>
+        <v>252</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>27</v>
@@ -21474,12 +21386,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="85" ht="84" spans="1:17">
       <c r="A85" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>19</v>
@@ -21525,12 +21437,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="86" ht="84" spans="1:17">
       <c r="A86" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>19</v>
@@ -21576,12 +21488,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="87" ht="84" spans="1:17">
       <c r="A87" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>19</v>
@@ -21627,12 +21539,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="88" ht="51" spans="1:17">
       <c r="A88" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>178</v>
@@ -21678,12 +21590,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="89" ht="51" spans="1:17">
       <c r="A89" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>178</v>
@@ -21729,12 +21641,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="90" ht="63.75" spans="1:17">
       <c r="A90" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>178</v>
@@ -21780,12 +21692,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="91" ht="51" spans="1:17">
       <c r="A91" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>178</v>
@@ -21831,12 +21743,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="92" ht="51" spans="1:17">
       <c r="A92" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>178</v>
@@ -21863,6 +21775,7 @@
       <c r="K92" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="L92" s="2"/>
       <c r="M92" s="2" t="s">
         <v>27</v>
       </c>
@@ -21879,12 +21792,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="93" ht="140.25" spans="1:17">
       <c r="A93" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C93" s="7" t="s">
         <v>178</v>
@@ -21914,6 +21827,7 @@
       <c r="L93" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2" t="s">
         <v>56</v>
       </c>
@@ -21927,12 +21841,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="94" ht="140.25" spans="1:17">
       <c r="A94" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>178</v>
@@ -21962,6 +21876,7 @@
       <c r="L94" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2" t="s">
         <v>146</v>
       </c>
@@ -21975,12 +21890,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="95" ht="140.25" spans="1:17">
       <c r="A95" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>178</v>
@@ -22010,6 +21925,7 @@
       <c r="L95" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2" t="s">
         <v>28</v>
       </c>
@@ -22023,12 +21939,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="96" ht="140.25" spans="1:17">
       <c r="A96" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>178</v>
@@ -22074,12 +21990,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="97" ht="140.25" spans="1:17">
       <c r="A97" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>178</v>
@@ -22125,12 +22041,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="98" ht="140.25" spans="1:17">
       <c r="A98" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>178</v>
@@ -22176,12 +22092,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="99" ht="140.25" spans="1:17">
       <c r="A99" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>178</v>
@@ -22212,7 +22128,7 @@
         <v>26</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>56</v>
@@ -22227,12 +22143,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="100" ht="140.25" spans="1:17">
       <c r="A100" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>178</v>
@@ -22263,7 +22179,7 @@
         <v>26</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>146</v>
@@ -22278,12 +22194,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="101" ht="140.25" spans="1:17">
       <c r="A101" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>178</v>
@@ -22314,7 +22230,7 @@
         <v>26</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>28</v>
@@ -22329,12 +22245,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="102" ht="140.25" spans="1:17">
       <c r="A102" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>178</v>
@@ -22380,12 +22296,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="103" ht="140.25" spans="1:17">
       <c r="A103" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>178</v>
@@ -22431,12 +22347,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="104" ht="140.25" spans="1:17">
       <c r="A104" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>178</v>
@@ -22482,12 +22398,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="105" ht="140.25" spans="1:17">
       <c r="A105" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>178</v>
@@ -22533,12 +22449,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="106" ht="140.25" spans="1:17">
       <c r="A106" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>178</v>
@@ -22584,12 +22500,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="107" ht="140.25" spans="1:17">
       <c r="A107" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>178</v>
@@ -22635,12 +22551,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="108" ht="140.25" spans="1:17">
       <c r="A108" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>178</v>
@@ -22686,12 +22602,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="109" ht="140.25" spans="1:17">
       <c r="A109" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>178</v>
@@ -22737,12 +22653,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="110" ht="140.25" spans="1:17">
       <c r="A110" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>178</v>
@@ -22788,12 +22704,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="111" ht="140.25" spans="1:17">
       <c r="A111" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>178</v>
@@ -22839,12 +22755,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="112" ht="140.25" spans="1:17">
       <c r="A112" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>178</v>
@@ -22890,12 +22806,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="113" ht="140.25" spans="1:17">
       <c r="A113" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>178</v>
@@ -22941,12 +22857,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="114" ht="140.25" spans="1:17">
       <c r="A114" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>178</v>
@@ -22977,7 +22893,7 @@
         <v>26</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>56</v>
@@ -22992,12 +22908,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="115" ht="140.25" spans="1:17">
       <c r="A115" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>178</v>
@@ -23028,7 +22944,7 @@
         <v>26</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>146</v>
@@ -23043,12 +22959,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="116" ht="140.25" spans="1:17">
       <c r="A116" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>178</v>
@@ -23079,7 +22995,7 @@
         <v>26</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>28</v>
@@ -23094,12 +23010,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="117" ht="140.25" spans="1:17">
       <c r="A117" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>178</v>
@@ -23145,12 +23061,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="118" ht="140.25" spans="1:17">
       <c r="A118" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>178</v>
@@ -23196,12 +23112,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="119" ht="140.25" spans="1:17">
       <c r="A119" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>178</v>
@@ -23247,12 +23163,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="120" ht="140.25" spans="1:17">
       <c r="A120" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>178</v>
@@ -23298,12 +23214,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="121" ht="140.25" spans="1:17">
       <c r="A121" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>178</v>
@@ -23349,12 +23265,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" s="2" customFormat="1" ht="58" customHeight="1" spans="1:17">
+    <row r="122" ht="140.25" spans="1:17">
       <c r="A122" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>178</v>
@@ -23400,12 +23316,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="123" ht="140.25" spans="1:17">
       <c r="A123" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>178</v>
@@ -23438,6 +23354,7 @@
       <c r="M123" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="N123" s="2"/>
       <c r="O123" s="2" t="s">
         <v>29</v>
       </c>
@@ -23448,12 +23365,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="124" ht="140.25" spans="1:17">
       <c r="A124" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>178</v>
@@ -23499,12 +23416,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="125" ht="140.25" spans="1:17">
       <c r="A125" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>178</v>
@@ -23538,7 +23455,7 @@
         <v>27</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>29</v>
@@ -23550,12 +23467,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="126" ht="140.25" spans="1:17">
       <c r="A126" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>178</v>
@@ -23601,12 +23518,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="127" ht="140.25" spans="1:17">
       <c r="A127" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>178</v>
@@ -23652,12 +23569,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="128" ht="140.25" spans="1:17">
       <c r="A128" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C128" s="7" t="s">
         <v>178</v>
@@ -23703,12 +23620,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="129" ht="140.25" spans="1:17">
       <c r="A129" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>178</v>
@@ -23742,7 +23659,7 @@
         <v>27</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>29</v>
@@ -23754,12 +23671,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="130" ht="140.25" spans="1:17">
       <c r="A130" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>178</v>
@@ -23805,12 +23722,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="131" ht="140.25" spans="1:17">
       <c r="A131" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>178</v>
@@ -23856,12 +23773,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="132" ht="140.25" spans="1:17">
       <c r="A132" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>178</v>
@@ -23891,6 +23808,8 @@
       <c r="L132" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
       <c r="O132" s="2" t="s">
         <v>29</v>
       </c>
@@ -23901,12 +23820,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="133" ht="140.25" spans="1:17">
       <c r="A133" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>178</v>
@@ -23952,12 +23871,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="134" ht="140.25" spans="1:17">
       <c r="A134" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C134" s="7" t="s">
         <v>178</v>
@@ -23993,6 +23912,7 @@
       <c r="N134" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="O134" s="2"/>
       <c r="P134" s="2" t="s">
         <v>30</v>
       </c>
@@ -24000,12 +23920,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="135" ht="140.25" spans="1:17">
       <c r="A135" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>178</v>
@@ -24051,12 +23971,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="136" ht="140.25" spans="1:17">
       <c r="A136" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>178</v>
@@ -24093,7 +24013,7 @@
         <v>56</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P136" s="2" t="s">
         <v>30</v>
@@ -24102,12 +24022,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="137" ht="140.25" spans="1:17">
       <c r="A137" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C137" s="7" t="s">
         <v>178</v>
@@ -24153,12 +24073,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="138" ht="140.25" spans="1:17">
       <c r="A138" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>178</v>
@@ -24204,12 +24124,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="139" ht="140.25" spans="1:17">
       <c r="A139" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>178</v>
@@ -24255,12 +24175,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="140" ht="140.25" spans="1:17">
       <c r="A140" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>178</v>
@@ -24299,16 +24219,17 @@
       <c r="O140" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P140" s="2"/>
       <c r="Q140" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="141" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="141" ht="140.25" spans="1:17">
       <c r="A141" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>178</v>
@@ -24354,12 +24275,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="142" ht="140.25" spans="1:17">
       <c r="A142" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>19</v>
@@ -24405,12 +24326,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="143" ht="140.25" spans="1:17">
       <c r="A143" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>19</v>
@@ -24456,12 +24377,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="144" ht="140.25" spans="1:17">
       <c r="A144" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>19</v>
@@ -24507,12 +24428,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="145" ht="140.25" spans="1:17">
       <c r="A145" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>19</v>
@@ -24552,18 +24473,18 @@
         <v>29</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q145" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="146" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="146" ht="140.25" spans="1:17">
       <c r="A146" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>19</v>
@@ -24609,12 +24530,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="147" ht="140.25" spans="1:17">
       <c r="A147" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C147" s="7" t="s">
         <v>19</v>
@@ -24660,12 +24581,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="148" ht="140.25" spans="1:17">
       <c r="A148" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C148" s="7" t="s">
         <v>19</v>
@@ -24711,12 +24632,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="149" ht="140.25" spans="1:17">
       <c r="A149" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C149" s="7" t="s">
         <v>19</v>
@@ -24762,12 +24683,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="150" ht="140.25" spans="1:17">
       <c r="A150" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C150" s="7" t="s">
         <v>19</v>
@@ -24813,12 +24734,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="151" ht="140.25" spans="1:17">
       <c r="A151" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>19</v>
@@ -24864,12 +24785,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="152" ht="140.25" spans="1:17">
       <c r="A152" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C152" s="7" t="s">
         <v>19</v>
@@ -24915,12 +24836,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="153" ht="140.25" spans="1:17">
       <c r="A153" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C153" s="7" t="s">
         <v>19</v>
@@ -24966,12 +24887,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="154" ht="140.25" spans="1:17">
       <c r="A154" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C154" s="7" t="s">
         <v>178</v>
@@ -25010,16 +24931,17 @@
       <c r="O154" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="P154" s="2"/>
       <c r="Q154" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="155" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="155" ht="140.25" spans="1:17">
       <c r="A155" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C155" s="7" t="s">
         <v>178</v>
@@ -25065,12 +24987,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="156" ht="140.25" spans="1:17">
       <c r="A156" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>178</v>
@@ -25116,12 +25038,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="157" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="157" ht="140.25" spans="1:17">
       <c r="A157" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>178</v>
@@ -25164,15 +25086,15 @@
         <v>413</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="158" ht="140.25" spans="1:17">
       <c r="A158" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C158" s="7" t="s">
         <v>178</v>
@@ -25218,12 +25140,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="159" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="159" ht="140.25" spans="1:17">
       <c r="A159" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C159" s="7" t="s">
         <v>178</v>
@@ -25266,15 +25188,15 @@
         <v>413</v>
       </c>
       <c r="Q159" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="160" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" ht="140.25" spans="1:17">
       <c r="A160" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>178</v>
@@ -25320,12 +25242,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="161" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="161" ht="140.25" spans="1:17">
       <c r="A161" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C161" s="7" t="s">
         <v>178</v>
@@ -25371,12 +25293,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="162" s="2" customFormat="1" ht="33" customHeight="1" spans="1:17">
+    <row r="162" ht="140.25" spans="1:17">
       <c r="A162" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>434</v>
+        <v>736</v>
       </c>
       <c r="C162" s="7" t="s">
         <v>178</v>
